--- a/ConsoleApp1/Sample/5-Input.xlsx
+++ b/ConsoleApp1/Sample/5-Input.xlsx
@@ -796,9 +796,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA51DDF0-66E1-4C60-9F49-B00E70031E38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6DD336-14F9-4BBD-8BCD-C9A36CFD644D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23BD8C30-AB04-4A51-A7C9-4E9C48E65983}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E453E685-6F11-41BB-A59D-261301ADA8C1}"/>
 </file>